--- a/output/funa/date30012024/output.xlsx
+++ b/output/funa/date30012024/output.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/r_m_schouten_tue_nl/Documents/Documents/Github/DescriptionModels/output/funa/date30012024/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_DC8A6277D158B10651BC49351D8D0533A8757B5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DA31517-65B1-4E23-A713-1ACACDB148DE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="-18465" yWindow="840" windowWidth="14400" windowHeight="10665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation_summary" sheetId="1" r:id="rId1"/>
     <sheet name="analysis_info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -449,8 +455,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,13 +519,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -557,7 +571,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -591,6 +605,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -625,9 +640,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,14 +816,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1028,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1039,7 +1087,7 @@
         <v>0.63</v>
       </c>
       <c r="T2">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="U2">
         <v>0.49</v>
@@ -1069,7 +1117,7 @@
         <v>26.03</v>
       </c>
       <c r="AD2">
-        <v>2.622642955695232</v>
+        <v>2.6226429556952322</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1081,19 +1129,19 @@
         <v>5</v>
       </c>
       <c r="AH2">
-        <v>0.6383656128006884</v>
+        <v>0.63836561280068838</v>
       </c>
       <c r="AI2">
-        <v>2.706538815775931</v>
+        <v>2.7065388157759309</v>
       </c>
       <c r="AJ2">
-        <v>0.5493490643545491</v>
+        <v>0.54934906435454911</v>
       </c>
       <c r="AK2">
-        <v>0.6206460050810105</v>
+        <v>0.62064600508101053</v>
       </c>
       <c r="AL2">
-        <v>0.6568617852077113</v>
+        <v>0.65686178520771132</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -1114,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="AS2">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="AT2">
         <v>1.666666666666667</v>
@@ -1123,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="AV2">
-        <v>0.9370955864588419</v>
+        <v>0.93709558645884194</v>
       </c>
       <c r="AW2">
         <v>20</v>
@@ -1132,16 +1180,16 @@
         <v>3.734999999999999</v>
       </c>
       <c r="AY2">
-        <v>0.2495495942693556</v>
+        <v>0.24954959426935561</v>
       </c>
       <c r="AZ2">
-        <v>4.145509082573089</v>
+        <v>4.1455090825730894</v>
       </c>
       <c r="BA2">
-        <v>4.224117204767937</v>
+        <v>4.2241172047679374</v>
       </c>
       <c r="BB2">
-        <v>4.378837953214937</v>
+        <v>4.3788379532149371</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -1153,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1218,7 +1266,7 @@
         <v>0.05</v>
       </c>
       <c r="V3">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W3">
         <v>0.08</v>
@@ -1242,7 +1290,7 @@
         <v>29.87</v>
       </c>
       <c r="AD3">
-        <v>0.3443200981143645</v>
+        <v>0.34432009811436448</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1254,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.650314272573982</v>
+        <v>1.6503142725739821</v>
       </c>
       <c r="AI3">
         <v>1.288684550350417</v>
@@ -1263,10 +1311,10 @@
         <v>0.1241337902503144</v>
       </c>
       <c r="AK3">
-        <v>0.1626077997095594</v>
+        <v>0.16260779970955941</v>
       </c>
       <c r="AL3">
-        <v>0.2024801028551481</v>
+        <v>0.20248010285514809</v>
       </c>
       <c r="AM3">
         <v>3</v>
@@ -1290,13 +1338,13 @@
         <v>1.25</v>
       </c>
       <c r="AT3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU3">
         <v>6</v>
       </c>
       <c r="AV3">
-        <v>0.2629876891771952</v>
+        <v>0.26298768917719523</v>
       </c>
       <c r="AW3">
         <v>20</v>
@@ -1305,16 +1353,16 @@
         <v>3.54</v>
       </c>
       <c r="AY3">
-        <v>0.3352610922848042</v>
+        <v>0.33526109228480422</v>
       </c>
       <c r="AZ3">
-        <v>4.091504496808503</v>
+        <v>4.0915044968085033</v>
       </c>
       <c r="BA3">
-        <v>4.197111740878216</v>
+        <v>4.1971117408782161</v>
       </c>
       <c r="BB3">
-        <v>4.404973618094795</v>
+        <v>4.4049736180947949</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1326,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1415,7 +1463,7 @@
         <v>24.93</v>
       </c>
       <c r="AD4">
-        <v>3.44243446267055</v>
+        <v>3.4424344626705499</v>
       </c>
       <c r="AE4">
         <v>2</v>
@@ -1427,19 +1475,19 @@
         <v>5</v>
       </c>
       <c r="AH4">
-        <v>0.4639736215238157</v>
+        <v>0.46397362152381572</v>
       </c>
       <c r="AI4">
-        <v>2.414532913537917</v>
+        <v>2.4145329135379172</v>
       </c>
       <c r="AJ4">
-        <v>0.6050918862865242</v>
+        <v>0.60509188628652422</v>
       </c>
       <c r="AK4">
-        <v>0.6384318974287035</v>
+        <v>0.63843189742870354</v>
       </c>
       <c r="AL4">
-        <v>0.691224294882501</v>
+        <v>0.69122429488250103</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -1469,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="AV4">
-        <v>2.286462744077047</v>
+        <v>2.2864627440770469</v>
       </c>
       <c r="AW4">
         <v>20</v>
@@ -1478,16 +1526,16 @@
         <v>3.734999999999999</v>
       </c>
       <c r="AY4">
-        <v>0.2706935536727832</v>
+        <v>0.27069355367278319</v>
       </c>
       <c r="AZ4">
-        <v>4.180290895791728</v>
+        <v>4.1802908957917282</v>
       </c>
       <c r="BA4">
         <v>4.265559365198655</v>
       </c>
       <c r="BB4">
-        <v>4.43338936847578</v>
+        <v>4.4333893684757797</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -1499,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1600,19 +1648,19 @@
         <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.5810346203424437</v>
+        <v>0.58103462034244369</v>
       </c>
       <c r="AI5">
         <v>2.14570820772949</v>
       </c>
       <c r="AJ5">
-        <v>0.03148887038994541</v>
+        <v>3.1488870389945411E-2</v>
       </c>
       <c r="AK5">
-        <v>0.09119880026244259</v>
+        <v>9.1198800262442592E-2</v>
       </c>
       <c r="AL5">
-        <v>0.1722282093982141</v>
+        <v>0.17222820939821409</v>
       </c>
       <c r="AM5">
         <v>3</v>
@@ -1636,13 +1684,13 @@
         <v>1.083333333333333</v>
       </c>
       <c r="AT5">
-        <v>1.051282051282051</v>
+        <v>1.0512820512820511</v>
       </c>
       <c r="AU5">
         <v>6</v>
       </c>
       <c r="AV5">
-        <v>0.460740868250529</v>
+        <v>0.46074086825052901</v>
       </c>
       <c r="AW5">
         <v>20</v>
@@ -1651,13 +1699,13 @@
         <v>0.95</v>
       </c>
       <c r="AY5">
-        <v>0.1802775637731995</v>
+        <v>0.18027756377319951</v>
       </c>
       <c r="AZ5">
-        <v>1.246556592406913</v>
+        <v>1.2465565924069131</v>
       </c>
       <c r="BA5">
-        <v>1.303344024995471</v>
+        <v>1.3033440249954711</v>
       </c>
       <c r="BB5">
         <v>1.415116114534855</v>
@@ -1672,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1731,7 +1779,7 @@
         <v>0.63</v>
       </c>
       <c r="T6">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="U6">
         <v>0.49</v>
@@ -1761,7 +1809,7 @@
         <v>26.03</v>
       </c>
       <c r="AD6">
-        <v>2.622642955695232</v>
+        <v>2.6226429556952322</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -1773,19 +1821,19 @@
         <v>5</v>
       </c>
       <c r="AH6">
-        <v>0.6383656128006884</v>
+        <v>0.63836561280068838</v>
       </c>
       <c r="AI6">
-        <v>2.706538815775931</v>
+        <v>2.7065388157759309</v>
       </c>
       <c r="AJ6">
-        <v>0.5493490643545491</v>
+        <v>0.54934906435454911</v>
       </c>
       <c r="AK6">
-        <v>0.6206460050810105</v>
+        <v>0.62064600508101053</v>
       </c>
       <c r="AL6">
-        <v>0.6568617852077113</v>
+        <v>0.65686178520771132</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -1806,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="AS6">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="AT6">
         <v>1.636363636363636</v>
@@ -1815,25 +1863,25 @@
         <v>3</v>
       </c>
       <c r="AV6">
-        <v>0.809874439239502</v>
+        <v>0.80987443923950198</v>
       </c>
       <c r="AW6">
         <v>20</v>
       </c>
       <c r="AX6">
-        <v>2.975</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="AY6">
         <v>0.3222964473896664</v>
       </c>
       <c r="AZ6">
-        <v>3.505177655956001</v>
+        <v>3.5051776559560008</v>
       </c>
       <c r="BA6">
         <v>3.606701036883746</v>
       </c>
       <c r="BB6">
-        <v>3.806524834265339</v>
+        <v>3.8065248342653391</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -1845,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1910,7 +1958,7 @@
         <v>0.05</v>
       </c>
       <c r="V7">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W7">
         <v>0.08</v>
@@ -1934,7 +1982,7 @@
         <v>31.13</v>
       </c>
       <c r="AD7">
-        <v>0.4449639736317645</v>
+        <v>0.44496397363176449</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1952,13 +2000,13 @@
         <v>1.204820606510675</v>
       </c>
       <c r="AJ7">
-        <v>0.01059390845773468</v>
+        <v>1.0593908457734681E-2</v>
       </c>
       <c r="AK7">
-        <v>0.2461988304093567</v>
+        <v>0.24619883040935669</v>
       </c>
       <c r="AL7">
-        <v>0.3703531800475491</v>
+        <v>0.37035318004754908</v>
       </c>
       <c r="AM7">
         <v>3</v>
@@ -1979,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="AS7">
-        <v>1.272727272727273</v>
+        <v>1.2727272727272729</v>
       </c>
       <c r="AT7">
         <v>1.311688311688312</v>
@@ -1988,7 +2036,7 @@
         <v>4</v>
       </c>
       <c r="AV7">
-        <v>0.2403597553571065</v>
+        <v>0.24035975535710649</v>
       </c>
       <c r="AW7">
         <v>20</v>
@@ -1997,16 +2045,16 @@
         <v>3.21</v>
       </c>
       <c r="AY7">
-        <v>0.4482186966202993</v>
+        <v>0.44821869662029928</v>
       </c>
       <c r="AZ7">
-        <v>3.947319755940392</v>
+        <v>3.9473197559403919</v>
       </c>
       <c r="BA7">
-        <v>4.088508645375787</v>
+        <v>4.0885086453757866</v>
       </c>
       <c r="BB7">
-        <v>4.366404237280372</v>
+        <v>4.3664042372803724</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -2018,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2107,7 +2155,7 @@
         <v>24.93</v>
       </c>
       <c r="AD8">
-        <v>3.44243446267055</v>
+        <v>3.4424344626705499</v>
       </c>
       <c r="AE8">
         <v>2</v>
@@ -2119,19 +2167,19 @@
         <v>5</v>
       </c>
       <c r="AH8">
-        <v>0.4639736215238157</v>
+        <v>0.46397362152381572</v>
       </c>
       <c r="AI8">
-        <v>2.414532913537917</v>
+        <v>2.4145329135379172</v>
       </c>
       <c r="AJ8">
-        <v>0.6050918862865242</v>
+        <v>0.60509188628652422</v>
       </c>
       <c r="AK8">
-        <v>0.6384318974287035</v>
+        <v>0.63843189742870354</v>
       </c>
       <c r="AL8">
-        <v>0.691224294882501</v>
+        <v>0.69122429488250103</v>
       </c>
       <c r="AM8">
         <v>1</v>
@@ -2152,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="AS8">
-        <v>0.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="AT8">
         <v>1.636363636363636</v>
@@ -2161,25 +2209,25 @@
         <v>3</v>
       </c>
       <c r="AV8">
-        <v>2.097442758083344</v>
+        <v>2.0974427580833441</v>
       </c>
       <c r="AW8">
         <v>20</v>
       </c>
       <c r="AX8">
-        <v>2.945000000000001</v>
+        <v>2.9450000000000012</v>
       </c>
       <c r="AY8">
-        <v>0.3293554311074891</v>
+        <v>0.32935543110748911</v>
       </c>
       <c r="AZ8">
         <v>3.48678968417182</v>
       </c>
       <c r="BA8">
-        <v>3.590536644970679</v>
+        <v>3.5905366449706788</v>
       </c>
       <c r="BB8">
-        <v>3.794737012257323</v>
+        <v>3.7947370122573232</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -2191,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2292,19 +2340,19 @@
         <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.5810346203424437</v>
+        <v>0.58103462034244369</v>
       </c>
       <c r="AI9">
         <v>2.14570820772949</v>
       </c>
       <c r="AJ9">
-        <v>0.03148887038994541</v>
+        <v>3.1488870389945411E-2</v>
       </c>
       <c r="AK9">
-        <v>0.09119880026244259</v>
+        <v>9.1198800262442592E-2</v>
       </c>
       <c r="AL9">
-        <v>0.1722282093982141</v>
+        <v>0.17222820939821409</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -2325,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.181818181818182</v>
+        <v>1.1818181818181821</v>
       </c>
       <c r="AT9">
         <v>1.020979020979021</v>
@@ -2334,7 +2382,7 @@
         <v>6</v>
       </c>
       <c r="AV9">
-        <v>0.3960457086563111</v>
+        <v>0.39604570865631111</v>
       </c>
       <c r="AW9">
         <v>20</v>
@@ -2343,16 +2391,16 @@
         <v>0.8500000000000002</v>
       </c>
       <c r="AY9">
-        <v>0.2418677324489565</v>
+        <v>0.24186773244895651</v>
       </c>
       <c r="AZ9">
         <v>1.247872419878534</v>
       </c>
       <c r="BA9">
-        <v>1.324060755599955</v>
+        <v>1.3240607555999551</v>
       </c>
       <c r="BB9">
-        <v>1.474018749718308</v>
+        <v>1.4740187497183079</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2364,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2411,10 +2459,10 @@
         <v>17.7</v>
       </c>
       <c r="P10">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="Q10">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="R10">
         <v>0.31</v>
@@ -2450,7 +2498,7 @@
         <v>30.68</v>
       </c>
       <c r="AC10">
-        <v>35.38</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="AD10">
         <v>1.829457364341085</v>
@@ -2465,19 +2513,19 @@
         <v>4</v>
       </c>
       <c r="AH10">
-        <v>1.03890202776683</v>
+        <v>1.0389020277668299</v>
       </c>
       <c r="AI10">
-        <v>2.440866571144423</v>
+        <v>2.4408665711444231</v>
       </c>
       <c r="AJ10">
-        <v>0.5741726015919565</v>
+        <v>0.57417260159195649</v>
       </c>
       <c r="AK10">
         <v>0.6450331583310307</v>
       </c>
       <c r="AL10">
-        <v>0.7057291666666666</v>
+        <v>0.70572916666666663</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -2498,34 +2546,34 @@
         <v>2</v>
       </c>
       <c r="AS10">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="AT10">
-        <v>1.692307692307692</v>
+        <v>1.6923076923076921</v>
       </c>
       <c r="AU10">
         <v>3</v>
       </c>
       <c r="AV10">
-        <v>0.1266166011492411</v>
+        <v>0.12661660114924109</v>
       </c>
       <c r="AW10">
         <v>20</v>
       </c>
       <c r="AX10">
-        <v>5.255</v>
+        <v>5.2549999999999999</v>
       </c>
       <c r="AY10">
-        <v>0.6328309410893245</v>
+        <v>0.63283094108932447</v>
       </c>
       <c r="AZ10">
-        <v>6.296006898091939</v>
+        <v>6.2960068980919388</v>
       </c>
       <c r="BA10">
-        <v>6.495348644535076</v>
+        <v>6.4953486445350759</v>
       </c>
       <c r="BB10">
-        <v>6.887703828010457</v>
+        <v>6.8877038280104568</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -2537,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2581,13 +2629,13 @@
         <v>5</v>
       </c>
       <c r="O11">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="P11">
         <v>18.7</v>
       </c>
       <c r="Q11">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="R11">
         <v>0.34</v>
@@ -2638,16 +2686,16 @@
         <v>5</v>
       </c>
       <c r="AH11">
-        <v>1.12592951736616</v>
+        <v>1.1259295173661601</v>
       </c>
       <c r="AI11">
-        <v>2.101298686680119</v>
+        <v>2.1012986866801189</v>
       </c>
       <c r="AJ11">
-        <v>0.7131373814352734</v>
+        <v>0.71313738143527339</v>
       </c>
       <c r="AK11">
-        <v>0.7654751525719268</v>
+        <v>0.76547515257192678</v>
       </c>
       <c r="AL11">
         <v>0.8240521209475814</v>
@@ -2671,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="AS11">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="AT11">
         <v>1.538461538461539</v>
@@ -2686,19 +2734,19 @@
         <v>20</v>
       </c>
       <c r="AX11">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="AY11">
-        <v>0.5008991914547278</v>
+        <v>0.50089919145472783</v>
       </c>
       <c r="AZ11">
-        <v>5.633979169943028</v>
+        <v>5.6339791699430277</v>
       </c>
       <c r="BA11">
-        <v>5.791762415251267</v>
+        <v>5.7917624152512666</v>
       </c>
       <c r="BB11">
-        <v>6.102319913953198</v>
+        <v>6.1023199139531981</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2710,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2754,13 +2802,13 @@
         <v>5</v>
       </c>
       <c r="O12">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="P12">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q12">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="R12">
         <v>0.25</v>
@@ -2799,7 +2847,7 @@
         <v>37.32</v>
       </c>
       <c r="AD12">
-        <v>1.543927648578811</v>
+        <v>1.5439276485788109</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2811,16 +2859,16 @@
         <v>3</v>
       </c>
       <c r="AH12">
-        <v>1.013486425999809</v>
+        <v>1.0134864259998091</v>
       </c>
       <c r="AI12">
-        <v>3.141399162439351</v>
+        <v>3.1413991624393511</v>
       </c>
       <c r="AJ12">
-        <v>0.4399870883075099</v>
+        <v>0.43998708830750988</v>
       </c>
       <c r="AK12">
-        <v>0.4774516911231658</v>
+        <v>0.47745169112316582</v>
       </c>
       <c r="AL12">
         <v>0.5293414792387543</v>
@@ -2844,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>0.02863961813842482</v>
+        <v>2.8639618138424819E-2</v>
       </c>
       <c r="AT12">
         <v>1.966587112171837</v>
@@ -2862,16 +2910,16 @@
         <v>8.16</v>
       </c>
       <c r="AY12">
-        <v>0.3072458299147444</v>
+        <v>0.30724582991474442</v>
       </c>
       <c r="AZ12">
-        <v>8.665419390209754</v>
+        <v>8.6654193902097543</v>
       </c>
       <c r="BA12">
         <v>8.7622018266329</v>
       </c>
       <c r="BB12">
-        <v>8.952694241180041</v>
+        <v>8.9526942411800405</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -2883,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2927,13 +2975,13 @@
         <v>5</v>
       </c>
       <c r="O13">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="P13">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q13">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="R13">
         <v>0.25</v>
@@ -2972,7 +3020,7 @@
         <v>37.32</v>
       </c>
       <c r="AD13">
-        <v>1.543927648578811</v>
+        <v>1.5439276485788109</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2984,16 +3032,16 @@
         <v>3</v>
       </c>
       <c r="AH13">
-        <v>1.013486425999809</v>
+        <v>1.0134864259998091</v>
       </c>
       <c r="AI13">
-        <v>3.141399162439351</v>
+        <v>3.1413991624393511</v>
       </c>
       <c r="AJ13">
-        <v>0.4399870883075099</v>
+        <v>0.43998708830750988</v>
       </c>
       <c r="AK13">
-        <v>0.4774516911231658</v>
+        <v>0.47745169112316582</v>
       </c>
       <c r="AL13">
         <v>0.5293414792387543</v>
@@ -3017,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="AS13">
-        <v>0.02863961813842482</v>
+        <v>2.8639618138424819E-2</v>
       </c>
       <c r="AT13">
         <v>1.966587112171837</v>
@@ -3026,22 +3074,22 @@
         <v>7</v>
       </c>
       <c r="AV13">
-        <v>29.53343462546666</v>
+        <v>29.533434625466661</v>
       </c>
       <c r="AW13">
         <v>20</v>
       </c>
       <c r="AX13">
-        <v>8.079999999999998</v>
+        <v>8.0799999999999983</v>
       </c>
       <c r="AY13">
         <v>0.3295451410656815</v>
       </c>
       <c r="AZ13">
-        <v>8.622101757053045</v>
+        <v>8.6221017570530449</v>
       </c>
       <c r="BA13">
-        <v>8.725908476488733</v>
+        <v>8.7259084764887334</v>
       </c>
       <c r="BB13">
         <v>8.930226463949456</v>
@@ -3056,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -3100,13 +3148,13 @@
         <v>5</v>
       </c>
       <c r="O14">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="P14">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q14">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="R14">
         <v>0.25</v>
@@ -3145,7 +3193,7 @@
         <v>37.32</v>
       </c>
       <c r="AD14">
-        <v>1.543927648578811</v>
+        <v>1.5439276485788109</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -3157,16 +3205,16 @@
         <v>3</v>
       </c>
       <c r="AH14">
-        <v>1.013486425999809</v>
+        <v>1.0134864259998091</v>
       </c>
       <c r="AI14">
-        <v>3.141399162439351</v>
+        <v>3.1413991624393511</v>
       </c>
       <c r="AJ14">
-        <v>0.4399870883075099</v>
+        <v>0.43998708830750988</v>
       </c>
       <c r="AK14">
-        <v>0.4774516911231658</v>
+        <v>0.47745169112316582</v>
       </c>
       <c r="AL14">
         <v>0.5293414792387543</v>
@@ -3190,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>0.02863961813842482</v>
+        <v>2.8639618138424819E-2</v>
       </c>
       <c r="AT14">
         <v>1.966587112171837</v>
@@ -3205,19 +3253,19 @@
         <v>20</v>
       </c>
       <c r="AX14">
-        <v>8.095000000000002</v>
+        <v>8.0950000000000024</v>
       </c>
       <c r="AY14">
-        <v>0.2836811590500857</v>
+        <v>0.28368115905008567</v>
       </c>
       <c r="AZ14">
-        <v>8.561655506637393</v>
+        <v>8.5616555066373934</v>
       </c>
       <c r="BA14">
-        <v>8.65101507173817</v>
+        <v>8.6510150717381702</v>
       </c>
       <c r="BB14">
-        <v>8.826897390349224</v>
+        <v>8.8268973903492238</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -3229,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -3318,7 +3366,7 @@
         <v>42.65</v>
       </c>
       <c r="AD15">
-        <v>2.038759689922481</v>
+        <v>2.0387596899224811</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -3330,19 +3378,19 @@
         <v>3</v>
       </c>
       <c r="AH15">
-        <v>0.667590218213622</v>
+        <v>0.66759021821362197</v>
       </c>
       <c r="AI15">
-        <v>2.76716812763284</v>
+        <v>2.7671681276328401</v>
       </c>
       <c r="AJ15">
-        <v>0.1315854456557974</v>
+        <v>0.13158544565579741</v>
       </c>
       <c r="AK15">
-        <v>0.2153509422763021</v>
+        <v>0.21535094227630211</v>
       </c>
       <c r="AL15">
-        <v>0.5666155019357866</v>
+        <v>0.56661550193578658</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3363,34 +3411,34 @@
         <v>2</v>
       </c>
       <c r="AS15">
-        <v>0.01474926253687316</v>
+        <v>1.474926253687316E-2</v>
       </c>
       <c r="AT15">
-        <v>1.976401179941003</v>
+        <v>1.9764011799410031</v>
       </c>
       <c r="AU15">
         <v>5</v>
       </c>
       <c r="AV15">
-        <v>8.755967116355896</v>
+        <v>8.7559671163558956</v>
       </c>
       <c r="AW15">
         <v>20</v>
       </c>
       <c r="AX15">
-        <v>7.149999999999999</v>
+        <v>7.1499999999999986</v>
       </c>
       <c r="AY15">
-        <v>0.4588027898781785</v>
+        <v>0.45880278987817852</v>
       </c>
       <c r="AZ15">
-        <v>7.904730589349603</v>
+        <v>7.9047305893496027</v>
       </c>
       <c r="BA15">
-        <v>8.049253468161229</v>
+        <v>8.0492534681612291</v>
       </c>
       <c r="BB15">
-        <v>8.3337111978857</v>
+        <v>8.3337111978856999</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -3402,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3446,13 +3494,13 @@
         <v>5</v>
       </c>
       <c r="O16">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="P16">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q16">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="R16">
         <v>0.25</v>
@@ -3491,7 +3539,7 @@
         <v>37.32</v>
       </c>
       <c r="AD16">
-        <v>1.543927648578811</v>
+        <v>1.5439276485788109</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -3503,16 +3551,16 @@
         <v>3</v>
       </c>
       <c r="AH16">
-        <v>1.013486425999809</v>
+        <v>1.0134864259998091</v>
       </c>
       <c r="AI16">
-        <v>3.141399162439351</v>
+        <v>3.1413991624393511</v>
       </c>
       <c r="AJ16">
-        <v>0.4399870883075099</v>
+        <v>0.43998708830750988</v>
       </c>
       <c r="AK16">
-        <v>0.4774516911231658</v>
+        <v>0.47745169112316582</v>
       </c>
       <c r="AL16">
         <v>0.5293414792387543</v>
@@ -3536,7 +3584,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>0.02863961813842482</v>
+        <v>2.8639618138424819E-2</v>
       </c>
       <c r="AT16">
         <v>1.966587112171837</v>
@@ -3551,19 +3599,19 @@
         <v>20</v>
       </c>
       <c r="AX16">
-        <v>8.270000000000001</v>
+        <v>8.2700000000000014</v>
       </c>
       <c r="AY16">
-        <v>0.3272613634390714</v>
+        <v>0.32726136343907142</v>
       </c>
       <c r="AZ16">
-        <v>8.808344942857273</v>
+        <v>8.8083449428572731</v>
       </c>
       <c r="BA16">
-        <v>8.911432272340582</v>
+        <v>8.9114322723405817</v>
       </c>
       <c r="BB16">
-        <v>9.114334317672805</v>
+        <v>9.1143343176728049</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -3581,14 +3629,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -3668,7 +3721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3748,7 +3801,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -3828,7 +3881,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3908,7 +3961,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3988,7 +4041,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -4068,7 +4121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4148,7 +4201,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -4228,7 +4281,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -4308,7 +4361,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -4388,7 +4441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -4468,7 +4521,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -4548,7 +4601,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -4628,7 +4681,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -4708,7 +4761,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4788,7 +4841,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
